--- a/DateBase/orders/korean papa_2024-10-24.xlsx
+++ b/DateBase/orders/korean papa_2024-10-24.xlsx
@@ -445,6 +445,9 @@
       <c r="C2" t="str">
         <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
       </c>
+      <c r="F2" t="str">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -505,8 +508,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>0200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/korean papa_2024-10-24.xlsx
+++ b/DateBase/orders/korean papa_2024-10-24.xlsx
@@ -445,8 +445,23 @@
       <c r="C2" t="str">
         <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
       </c>
+      <c r="E2" t="str">
+        <v>0.4</v>
+      </c>
       <c r="F2" t="str">
         <v>200</v>
+      </c>
+      <c r="G2" t="str">
+        <v>10</v>
+      </c>
+      <c r="H2" t="str">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>31.325</v>
+      </c>
+      <c r="L2">
+        <v>6265</v>
       </c>
     </row>
   </sheetData>
@@ -491,13 +506,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>1365.00</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>1400.00</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>500.00</v>
       </c>
       <c r="D2" t="str">
         <v>0.00</v>
@@ -506,10 +521,13 @@
         <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>3265.00</v>
       </c>
       <c r="G2" t="str">
         <v>0200</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/korean papa_2024-10-24.xlsx
+++ b/DateBase/orders/korean papa_2024-10-24.xlsx
@@ -458,10 +458,10 @@
         <v>15</v>
       </c>
       <c r="K2">
-        <v>31.325</v>
+        <v>30.075</v>
       </c>
       <c r="L2">
-        <v>6265</v>
+        <v>6015</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +512,7 @@
         <v>1400.00</v>
       </c>
       <c r="C2" t="str">
-        <v>500.00</v>
+        <v>250.00</v>
       </c>
       <c r="D2" t="str">
         <v>0.00</v>
@@ -521,7 +521,7 @@
         <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v>3265.00</v>
+        <v>3015.00</v>
       </c>
       <c r="G2" t="str">
         <v>0200</v>

--- a/DateBase/orders/korean papa_2024-10-24.xlsx
+++ b/DateBase/orders/korean papa_2024-10-24.xlsx
@@ -458,10 +458,10 @@
         <v>15</v>
       </c>
       <c r="K2">
-        <v>30.075</v>
+        <v>29.575</v>
       </c>
       <c r="L2">
-        <v>6015</v>
+        <v>5915</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +509,7 @@
         <v>1365.00</v>
       </c>
       <c r="B2" t="str">
-        <v>1400.00</v>
+        <v>1300.00</v>
       </c>
       <c r="C2" t="str">
         <v>250.00</v>
@@ -521,7 +521,7 @@
         <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v>3015.00</v>
+        <v>2915.00</v>
       </c>
       <c r="G2" t="str">
         <v>0200</v>

--- a/DateBase/orders/korean papa_2024-10-24.xlsx
+++ b/DateBase/orders/korean papa_2024-10-24.xlsx
@@ -457,12 +457,6 @@
       <c r="H2" t="str">
         <v>15</v>
       </c>
-      <c r="K2">
-        <v>29.575</v>
-      </c>
-      <c r="L2">
-        <v>5915</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -506,7 +500,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1365.00</v>
+        <v>1400.00</v>
       </c>
       <c r="B2" t="str">
         <v>1300.00</v>
@@ -521,7 +515,7 @@
         <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v>2915.00</v>
+        <v>2950.00</v>
       </c>
       <c r="G2" t="str">
         <v>0200</v>

--- a/DateBase/orders/korean papa_2024-10-24.xlsx
+++ b/DateBase/orders/korean papa_2024-10-24.xlsx
@@ -506,7 +506,7 @@
         <v>1300.00</v>
       </c>
       <c r="C2" t="str">
-        <v>250.00</v>
+        <v>0.00</v>
       </c>
       <c r="D2" t="str">
         <v>0.00</v>
@@ -515,7 +515,7 @@
         <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v>2950.00</v>
+        <v>2700.00</v>
       </c>
       <c r="G2" t="str">
         <v>0200</v>

--- a/DateBase/orders/korean papa_2024-10-24.xlsx
+++ b/DateBase/orders/korean papa_2024-10-24.xlsx
@@ -503,7 +503,7 @@
         <v>1400.00</v>
       </c>
       <c r="B2" t="str">
-        <v>1300.00</v>
+        <v>0.00</v>
       </c>
       <c r="C2" t="str">
         <v>0.00</v>
@@ -515,7 +515,7 @@
         <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v>2700.00</v>
+        <v>1400.00</v>
       </c>
       <c r="G2" t="str">
         <v>0200</v>

--- a/DateBase/orders/korean papa_2024-10-24.xlsx
+++ b/DateBase/orders/korean papa_2024-10-24.xlsx
@@ -500,7 +500,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1400.00</v>
+        <v>0.00</v>
       </c>
       <c r="B2" t="str">
         <v>0.00</v>
@@ -515,7 +515,7 @@
         <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v>1400.00</v>
+        <v>0.00</v>
       </c>
       <c r="G2" t="str">
         <v>0200</v>

--- a/DateBase/orders/korean papa_2024-10-24.xlsx
+++ b/DateBase/orders/korean papa_2024-10-24.xlsx
@@ -457,6 +457,12 @@
       <c r="H2" t="str">
         <v>15</v>
       </c>
+      <c r="K2">
+        <v>29.625</v>
+      </c>
+      <c r="L2">
+        <v>5925</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -500,13 +506,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>1365.00</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>1260.00</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>300.00</v>
       </c>
       <c r="D2" t="str">
         <v>0.00</v>
@@ -515,7 +521,7 @@
         <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>2925.00</v>
       </c>
       <c r="G2" t="str">
         <v>0200</v>
